--- a/Excel/motor_input.xlsx
+++ b/Excel/motor_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xi\Desktop\RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xi\Documents\UiPath\Claim-Registartion-RPA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Motor" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Policy no</t>
   </si>
@@ -33,6 +33,18 @@
     <t>AB005</t>
   </si>
   <si>
+    <t>CD016</t>
+  </si>
+  <si>
+    <t>Date of loss</t>
+  </si>
+  <si>
+    <t>Date of Loss</t>
+  </si>
+  <si>
+    <t>Bill Amount</t>
+  </si>
+  <si>
     <t>AB006</t>
   </si>
   <si>
@@ -63,58 +75,13 @@
     <t>AB015</t>
   </si>
   <si>
-    <t>AB022</t>
-  </si>
-  <si>
-    <t>AB023</t>
-  </si>
-  <si>
-    <t>AB024</t>
-  </si>
-  <si>
-    <t>AB029</t>
-  </si>
-  <si>
-    <t>AB030</t>
-  </si>
-  <si>
-    <t>CD001</t>
-  </si>
-  <si>
     <t>CD002</t>
   </si>
   <si>
-    <t>CD003</t>
-  </si>
-  <si>
-    <t>CD010</t>
-  </si>
-  <si>
-    <t>CD011</t>
-  </si>
-  <si>
-    <t>CD012</t>
-  </si>
-  <si>
     <t>CD004</t>
   </si>
   <si>
     <t>CD005</t>
-  </si>
-  <si>
-    <t>CD006</t>
-  </si>
-  <si>
-    <t>CD007</t>
-  </si>
-  <si>
-    <t>CD008</t>
-  </si>
-  <si>
-    <t>CD009</t>
-  </si>
-  <si>
-    <t>CD016</t>
   </si>
 </sst>
 </file>
@@ -150,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,72 +401,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43472</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43526</v>
       </c>
     </row>
   </sheetData>
@@ -507,133 +520,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/motor_input.xlsx
+++ b/Excel/motor_input.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +431,9 @@
       <c r="B2" s="1">
         <v>43466</v>
       </c>
+      <c r="C2">
+        <v>9000</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -439,6 +442,9 @@
       <c r="B3" s="1">
         <v>43470</v>
       </c>
+      <c r="C3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -447,7 +453,9 @@
       <c r="B4" s="1">
         <v>43472</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>5000</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -456,6 +464,9 @@
       <c r="B5" s="1">
         <v>43471</v>
       </c>
+      <c r="C5">
+        <v>8500</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -464,6 +475,9 @@
       <c r="B6" s="1">
         <v>43498</v>
       </c>
+      <c r="C6">
+        <v>6000</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -472,6 +486,9 @@
       <c r="B7" s="1">
         <v>43501</v>
       </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -480,6 +497,9 @@
       <c r="B8" s="1">
         <v>43511</v>
       </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -488,6 +508,9 @@
       <c r="B9" s="1">
         <v>43510</v>
       </c>
+      <c r="C9">
+        <v>8500</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -496,6 +519,9 @@
       <c r="B10" s="1">
         <v>43517</v>
       </c>
+      <c r="C10">
+        <v>6000</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -504,6 +530,9 @@
       <c r="B11" s="1">
         <v>43525</v>
       </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -511,6 +540,9 @@
       </c>
       <c r="B12" s="1">
         <v>43526</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +555,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B9"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +582,9 @@
       <c r="B2" s="1">
         <v>43511</v>
       </c>
+      <c r="C2">
+        <v>6650</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -558,6 +593,9 @@
       <c r="B3" s="1">
         <v>43470</v>
       </c>
+      <c r="C3">
+        <v>16000</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -566,6 +604,9 @@
       <c r="B4" s="1">
         <v>43472</v>
       </c>
+      <c r="C4">
+        <v>6400</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -573,6 +614,9 @@
       </c>
       <c r="B5" s="1">
         <v>43526</v>
+      </c>
+      <c r="C5">
+        <v>14000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excel/motor_input.xlsx
+++ b/Excel/motor_input.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Policy no</t>
   </si>
@@ -48,24 +48,6 @@
     <t>AB006</t>
   </si>
   <si>
-    <t>AB007</t>
-  </si>
-  <si>
-    <t>AB008</t>
-  </si>
-  <si>
-    <t>AB009</t>
-  </si>
-  <si>
-    <t>AB010</t>
-  </si>
-  <si>
-    <t>AB011</t>
-  </si>
-  <si>
-    <t>AB012</t>
-  </si>
-  <si>
     <t>AB013</t>
   </si>
   <si>
@@ -82,19 +64,34 @@
   </si>
   <si>
     <t>CD005</t>
+  </si>
+  <si>
+    <t>PR006</t>
+  </si>
+  <si>
+    <t>PR003</t>
+  </si>
+  <si>
+    <t>PR013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,10 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +449,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>43472</v>
+        <v>43517</v>
       </c>
       <c r="C4" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,10 +460,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>43471</v>
+        <v>43525</v>
       </c>
       <c r="C5">
-        <v>8500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,75 +471,9 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>43498</v>
+        <v>43526</v>
       </c>
       <c r="C6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43501</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43511</v>
-      </c>
-      <c r="C8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43510</v>
-      </c>
-      <c r="C9">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43517</v>
-      </c>
-      <c r="C10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43525</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43526</v>
-      </c>
-      <c r="C12">
         <v>5000</v>
       </c>
     </row>
@@ -577,7 +509,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>43511</v>
@@ -588,7 +520,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>43470</v>
@@ -599,7 +531,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>43472</v>
@@ -620,13 +552,28 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43471</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43499</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43486</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>

--- a/Excel/motor_input.xlsx
+++ b/Excel/motor_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Motor" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -429,9 +429,6 @@
       <c r="B2" s="1">
         <v>43466</v>
       </c>
-      <c r="C2">
-        <v>9000</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -440,9 +437,6 @@
       <c r="B3" s="1">
         <v>43470</v>
       </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -451,9 +445,7 @@
       <c r="B4" s="1">
         <v>43517</v>
       </c>
-      <c r="C4" s="2">
-        <v>6000</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -462,9 +454,6 @@
       <c r="B5" s="1">
         <v>43525</v>
       </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -472,9 +461,6 @@
       </c>
       <c r="B6" s="1">
         <v>43526</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
@@ -514,9 +500,6 @@
       <c r="B2" s="1">
         <v>43511</v>
       </c>
-      <c r="C2">
-        <v>6650</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -525,9 +508,6 @@
       <c r="B3" s="1">
         <v>43470</v>
       </c>
-      <c r="C3">
-        <v>16000</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -536,9 +516,6 @@
       <c r="B4" s="1">
         <v>43472</v>
       </c>
-      <c r="C4">
-        <v>6400</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -546,9 +523,6 @@
       </c>
       <c r="B5" s="1">
         <v>43526</v>
-      </c>
-      <c r="C5">
-        <v>14000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
